--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H2">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I2">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J2">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>0.4683621075504445</v>
+        <v>0.5500261035333334</v>
       </c>
       <c r="R2">
-        <v>4.215258967954</v>
+        <v>4.9502349318</v>
       </c>
       <c r="S2">
-        <v>0.04583443477818561</v>
+        <v>0.01626771117225512</v>
       </c>
       <c r="T2">
-        <v>0.04583443477818559</v>
+        <v>0.01626771117225512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H3">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I3">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J3">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>5.349311482684111</v>
+        <v>5.797670464383334</v>
       </c>
       <c r="R3">
-        <v>48.143803344157</v>
+        <v>52.17903417945</v>
       </c>
       <c r="S3">
-        <v>0.5234895485964929</v>
+        <v>0.1714733682285799</v>
       </c>
       <c r="T3">
-        <v>0.5234895485964928</v>
+        <v>0.1714733682285799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H4">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I4">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J4">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>1.598302653033222</v>
+        <v>3.853308720816667</v>
       </c>
       <c r="R4">
-        <v>14.384723877299</v>
+        <v>34.67977848735</v>
       </c>
       <c r="S4">
-        <v>0.1564116685045067</v>
+        <v>0.1139664334566959</v>
       </c>
       <c r="T4">
-        <v>0.1564116685045067</v>
+        <v>0.1139664334566959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H5">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I5">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J5">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.0575607229451111</v>
+        <v>0.08046958868333333</v>
       </c>
       <c r="R5">
-        <v>0.5180465065059999</v>
+        <v>0.7242262981499999</v>
       </c>
       <c r="S5">
-        <v>0.005632956123225137</v>
+        <v>0.0023799889104196</v>
       </c>
       <c r="T5">
-        <v>0.005632956123225136</v>
+        <v>0.0023799889104196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H6">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>0.1720292114448889</v>
+        <v>0.5074902013631112</v>
       </c>
       <c r="R6">
-        <v>1.548262903004</v>
+        <v>4.567411812268001</v>
       </c>
       <c r="S6">
-        <v>0.01683496923598635</v>
+        <v>0.01500965856982161</v>
       </c>
       <c r="T6">
-        <v>0.01683496923598634</v>
+        <v>0.01500965856982161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H7">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
-        <v>1.964799930020223</v>
+        <v>5.349311482684111</v>
       </c>
       <c r="R7">
-        <v>17.683199370182</v>
+        <v>48.14380334415701</v>
       </c>
       <c r="S7">
-        <v>0.192277498100113</v>
+        <v>0.1582125895693225</v>
       </c>
       <c r="T7">
-        <v>0.192277498100113</v>
+        <v>0.1582125895693225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H8">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I8">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J8">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>0.5870559138304444</v>
+        <v>3.555315658801223</v>
       </c>
       <c r="R8">
-        <v>5.283503224474</v>
+        <v>31.997840929211</v>
       </c>
       <c r="S8">
-        <v>0.05744994217046396</v>
+        <v>0.1051529152744459</v>
       </c>
       <c r="T8">
-        <v>0.05744994217046394</v>
+        <v>0.1051529152744459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H9">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I9">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J9">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,524 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>0.02114203010622222</v>
+        <v>0.07424652666877778</v>
       </c>
       <c r="R9">
-        <v>0.190278270956</v>
+        <v>0.6682187400190001</v>
       </c>
       <c r="S9">
-        <v>0.002068982491026369</v>
+        <v>0.002195934054096428</v>
       </c>
       <c r="T9">
-        <v>0.002068982491026369</v>
+        <v>0.002195934054096428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.057558</v>
+      </c>
+      <c r="H10">
+        <v>0.172674</v>
+      </c>
+      <c r="I10">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J10">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.252454666666667</v>
+      </c>
+      <c r="N10">
+        <v>24.757364</v>
+      </c>
+      <c r="O10">
+        <v>0.05349680956196952</v>
+      </c>
+      <c r="P10">
+        <v>0.05349680956196953</v>
+      </c>
+      <c r="Q10">
+        <v>0.474994785704</v>
+      </c>
+      <c r="R10">
+        <v>4.274953071336</v>
+      </c>
+      <c r="S10">
+        <v>0.01404856593627398</v>
+      </c>
+      <c r="T10">
+        <v>0.01404856593627397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.057558</v>
+      </c>
+      <c r="H11">
+        <v>0.172674</v>
+      </c>
+      <c r="I11">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J11">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>86.98680366666667</v>
+      </c>
+      <c r="N11">
+        <v>260.960411</v>
+      </c>
+      <c r="O11">
+        <v>0.5638948237978928</v>
+      </c>
+      <c r="P11">
+        <v>0.5638948237978929</v>
+      </c>
+      <c r="Q11">
+        <v>5.006786445446</v>
+      </c>
+      <c r="R11">
+        <v>45.061078009014</v>
+      </c>
+      <c r="S11">
+        <v>0.1480819824231148</v>
+      </c>
+      <c r="T11">
+        <v>0.1480819824231148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.057558</v>
+      </c>
+      <c r="H12">
+        <v>0.172674</v>
+      </c>
+      <c r="I12">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J12">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>57.81408433333333</v>
+      </c>
+      <c r="N12">
+        <v>173.442253</v>
+      </c>
+      <c r="O12">
+        <v>0.3747817085348802</v>
+      </c>
+      <c r="P12">
+        <v>0.3747817085348802</v>
+      </c>
+      <c r="Q12">
+        <v>3.327663066058</v>
+      </c>
+      <c r="R12">
+        <v>29.948967594522</v>
+      </c>
+      <c r="S12">
+        <v>0.09841980460465874</v>
+      </c>
+      <c r="T12">
+        <v>0.09841980460465874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.057558</v>
+      </c>
+      <c r="H13">
+        <v>0.172674</v>
+      </c>
+      <c r="I13">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J13">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.207345666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.622037</v>
+      </c>
+      <c r="O13">
+        <v>0.007826658105257385</v>
+      </c>
+      <c r="P13">
+        <v>0.007826658105257386</v>
+      </c>
+      <c r="Q13">
+        <v>0.069492401882</v>
+      </c>
+      <c r="R13">
+        <v>0.625431616938</v>
+      </c>
+      <c r="S13">
+        <v>0.002055324856803171</v>
+      </c>
+      <c r="T13">
+        <v>0.002055324856803171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.10043</v>
+      </c>
+      <c r="I14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.252454666666667</v>
+      </c>
+      <c r="N14">
+        <v>24.757364</v>
+      </c>
+      <c r="O14">
+        <v>0.05349680956196952</v>
+      </c>
+      <c r="P14">
+        <v>0.05349680956196953</v>
+      </c>
+      <c r="Q14">
+        <v>0.2762646740577778</v>
+      </c>
+      <c r="R14">
+        <v>2.48638206652</v>
+      </c>
+      <c r="S14">
+        <v>0.008170873883618814</v>
+      </c>
+      <c r="T14">
+        <v>0.008170873883618816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.10043</v>
+      </c>
+      <c r="I15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>86.98680366666667</v>
+      </c>
+      <c r="N15">
+        <v>260.960411</v>
+      </c>
+      <c r="O15">
+        <v>0.5638948237978928</v>
+      </c>
+      <c r="P15">
+        <v>0.5638948237978929</v>
+      </c>
+      <c r="Q15">
+        <v>2.912028230747778</v>
+      </c>
+      <c r="R15">
+        <v>26.20825407673</v>
+      </c>
+      <c r="S15">
+        <v>0.08612688357687562</v>
+      </c>
+      <c r="T15">
+        <v>0.08612688357687563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.10043</v>
+      </c>
+      <c r="I16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>57.81408433333333</v>
+      </c>
+      <c r="N16">
+        <v>173.442253</v>
+      </c>
+      <c r="O16">
+        <v>0.3747817085348802</v>
+      </c>
+      <c r="P16">
+        <v>0.3747817085348802</v>
+      </c>
+      <c r="Q16">
+        <v>1.935422829865555</v>
+      </c>
+      <c r="R16">
+        <v>17.41880546879</v>
+      </c>
+      <c r="S16">
+        <v>0.05724255519907962</v>
+      </c>
+      <c r="T16">
+        <v>0.05724255519907964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.10043</v>
+      </c>
+      <c r="I17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.207345666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.622037</v>
+      </c>
+      <c r="O17">
+        <v>0.007826658105257385</v>
+      </c>
+      <c r="P17">
+        <v>0.007826658105257386</v>
+      </c>
+      <c r="Q17">
+        <v>0.04041790843444444</v>
+      </c>
+      <c r="R17">
+        <v>0.36376117591</v>
+      </c>
+      <c r="S17">
+        <v>0.001195410283938187</v>
+      </c>
+      <c r="T17">
+        <v>0.001195410283938187</v>
       </c>
     </row>
   </sheetData>
